--- a/static/exel_files/sub_category.xlsx
+++ b/static/exel_files/sub_category.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22821"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\DjangoRepos\Elkomerc\static\exel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03365D6-49BF-4F0B-A41E-B592A9E8CE14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58008C20-9452-4AE8-9748-56D0955E39CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="2310" windowWidth="14715" windowHeight="11145" xr2:uid="{298B2161-6729-4535-A54A-F571BACBEC48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t>id</t>
   </si>
@@ -42,35 +44,242 @@
     <t>sub_category_name</t>
   </si>
   <si>
-    <t>Instalacioni</t>
-  </si>
-  <si>
-    <t>Podzemni</t>
-  </si>
-  <si>
-    <t>Provodnici</t>
+    <t>(P/PF) Provodnici</t>
+  </si>
+  <si>
+    <t>(PPY) Instalacioni</t>
+  </si>
+  <si>
+    <t>(PP00) Podzemni</t>
+  </si>
+  <si>
+    <t>(GGJ) Gumirani</t>
+  </si>
+  <si>
+    <t>(N2XH) Bezhalogeni</t>
+  </si>
+  <si>
+    <t>(PP00) Negorivi</t>
+  </si>
+  <si>
+    <t>Telekomunikacioni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koaksijalni </t>
+  </si>
+  <si>
+    <t>Računarski</t>
+  </si>
+  <si>
+    <t>(PPL) Savitljivi finozicni</t>
+  </si>
+  <si>
+    <t>Papučice</t>
+  </si>
+  <si>
+    <t>Čaure</t>
+  </si>
+  <si>
+    <t>Hilzne</t>
+  </si>
+  <si>
+    <t>Luster kleme</t>
+  </si>
+  <si>
+    <t>Brze spojnice</t>
+  </si>
+  <si>
+    <t>Din sine</t>
+  </si>
+  <si>
+    <t>Redne kleme ~</t>
+  </si>
+  <si>
+    <t>Cu sabirnice za osigurače</t>
+  </si>
+  <si>
+    <t>Termoskupljajući bužiri</t>
+  </si>
+  <si>
+    <t>Izolir trake</t>
+  </si>
+  <si>
+    <t>Obujnice</t>
+  </si>
+  <si>
+    <t>Potporni izolatori</t>
+  </si>
+  <si>
+    <t>Industrijski utikači i utičnice</t>
+  </si>
+  <si>
+    <t>Sabirnice za nulu i uzemljenje</t>
+  </si>
+  <si>
+    <t>Strujne stezaljke RNSS</t>
+  </si>
+  <si>
+    <t>Uvodnice i matice</t>
+  </si>
+  <si>
+    <t>Vezice</t>
+  </si>
+  <si>
+    <t>Rebrasta creva</t>
+  </si>
+  <si>
+    <t>Kanalice</t>
+  </si>
+  <si>
+    <t>Sapa creva</t>
+  </si>
+  <si>
+    <t>PNK Nosači kablova</t>
   </si>
   <si>
     <t>Sijalice</t>
   </si>
   <si>
-    <t>Fluo cevi</t>
-  </si>
-  <si>
-    <t>Led paneli</t>
+    <t>Fluo Cevi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflektori </t>
+  </si>
+  <si>
+    <t>Prigusnice</t>
+  </si>
+  <si>
+    <t>Sijalicna grla</t>
+  </si>
+  <si>
+    <t>Trafoi</t>
+  </si>
+  <si>
+    <t>LED Sijalice</t>
+  </si>
+  <si>
+    <t>LED Paneli</t>
+  </si>
+  <si>
+    <t>LED Reflektori</t>
+  </si>
+  <si>
+    <t>LED Cevi</t>
+  </si>
+  <si>
+    <t>LED Trake</t>
+  </si>
+  <si>
+    <t>Napajanje I kontroleri</t>
+  </si>
+  <si>
+    <t>AL Profili</t>
+  </si>
+  <si>
+    <t>Nosači</t>
+  </si>
+  <si>
+    <t>Okviri</t>
+  </si>
+  <si>
+    <t>Montažne kutije</t>
+  </si>
+  <si>
+    <t>Priključnice</t>
+  </si>
+  <si>
+    <t>Tasteri</t>
+  </si>
+  <si>
+    <t>Indikatori kupatila</t>
+  </si>
+  <si>
+    <t>Prekidači</t>
+  </si>
+  <si>
+    <t>Podsklopi</t>
+  </si>
+  <si>
+    <t>Utikači i kuplunzi</t>
+  </si>
+  <si>
+    <t>Produživači i razdelnici</t>
+  </si>
+  <si>
+    <t>Automatski</t>
+  </si>
+  <si>
+    <t>Topljivi</t>
+  </si>
+  <si>
+    <t>Stakleni</t>
+  </si>
+  <si>
+    <t>Nožasti</t>
   </si>
   <si>
     <t>Fid</t>
   </si>
   <si>
-    <t>Releji</t>
+    <t>Kontaktori</t>
+  </si>
+  <si>
+    <t>Bimetali</t>
+  </si>
+  <si>
+    <t>Grebenasti prekidači</t>
+  </si>
+  <si>
+    <t>Motorne zaštitne sklopke</t>
+  </si>
+  <si>
+    <t>Teretne sklopke</t>
+  </si>
+  <si>
+    <t>Foto releji</t>
+  </si>
+  <si>
+    <t>Industrijski minijaturni releji</t>
+  </si>
+  <si>
+    <t>Vremenski releji</t>
+  </si>
+  <si>
+    <t>Stepenišni automati</t>
+  </si>
+  <si>
+    <t>Rele za nadzor pod-nad napona, simetrije i ispada</t>
+  </si>
+  <si>
+    <t>Podnožije releja</t>
+  </si>
+  <si>
+    <t>Spratne table</t>
+  </si>
+  <si>
+    <t>Ormani</t>
+  </si>
+  <si>
+    <t>Razvodne kutije</t>
+  </si>
+  <si>
+    <t>Lampe</t>
+  </si>
+  <si>
+    <t>Senzori pokreta</t>
+  </si>
+  <si>
+    <t>Baterije</t>
+  </si>
+  <si>
+    <t>Grejači</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,15 +288,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -95,15 +310,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalan" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -415,115 +718,907 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A44304B-3623-4D94-951B-B8CA26418E3C}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:3">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:3">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:3">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:3">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:3">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6">
+        <v>2</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C29" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6">
+        <v>3</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6">
+        <v>3</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6">
+        <v>3</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6">
+        <v>4</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6">
+        <v>4</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6">
+        <v>4</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6">
+        <v>4</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6">
+        <v>4</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6">
+        <v>4</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="39" spans="1:3">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6">
+        <v>4</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9">
+        <v>5</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9">
+        <v>5</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9">
+        <v>5</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9">
+        <v>5</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9">
+        <v>5</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9">
+        <v>5</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9">
+        <v>5</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6">
+        <v>6</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6">
+        <v>6</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6">
+        <v>6</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6">
+        <v>6</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6">
+        <v>6</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6">
+        <v>6</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6">
+        <v>6</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6">
+        <v>7</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6">
+        <v>7</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6">
+        <v>7</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C57" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6">
+        <v>8</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6">
+        <v>8</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6">
+        <v>8</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" s="6">
+        <v>9</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="6">
+        <v>9</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="6">
+        <v>9</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+      <c r="B64" s="6">
+        <v>9</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+      <c r="B65" s="6">
+        <v>9</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="6">
+        <v>9</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+      <c r="B67" s="6">
         <v>10</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="6">
+        <v>67</v>
+      </c>
+      <c r="B68" s="6">
+        <v>10</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+      <c r="B69" s="6">
+        <v>10</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="6">
+        <v>69</v>
+      </c>
+      <c r="B70" s="6">
+        <v>10</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="6">
+        <v>70</v>
+      </c>
+      <c r="B71" s="6">
+        <v>10</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="6">
+        <v>71</v>
+      </c>
+      <c r="B72" s="6">
+        <v>10</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="6">
+        <v>72</v>
+      </c>
+      <c r="B73" s="6">
+        <v>11</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="6">
+        <v>11</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="6">
+        <v>74</v>
+      </c>
+      <c r="B75" s="6">
+        <v>11</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="6">
+        <v>75</v>
+      </c>
+      <c r="B76" s="6">
+        <v>12</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="6">
+        <v>12</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="6">
+        <v>77</v>
+      </c>
+      <c r="B78" s="6">
+        <v>12</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="6">
+        <v>78</v>
+      </c>
+      <c r="B79" s="6">
+        <v>12</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="6">
+        <v>13</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="6">
+        <v>80</v>
+      </c>
+      <c r="B81" s="6">
+        <v>13</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
